--- a/programacao_carrinho.xlsx
+++ b/programacao_carrinho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prati\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10a49e6f2d5943ab/work_space/my-project-oficial/testemunho_publico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD29CF73-978F-44C3-9CB9-B8C893E01040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AD29CF73-978F-44C3-9CB9-B8C893E01040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2C98AF0-FECD-4AE4-B0DB-4410A626179D}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,6 +766,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,9 +794,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,7 +801,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{96E19941-6306-4B91-9238-BECE5F2FF4C4}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF663300"/>
@@ -1120,38 +1122,38 @@
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="8" width="20.85546875" style="8" customWidth="1"/>
-    <col min="9" max="17" width="9.140625" style="8"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="8" width="20.88671875" style="8" customWidth="1"/>
+    <col min="9" max="17" width="9.109375" style="8"/>
     <col min="18" max="18" width="12" style="8" customWidth="1"/>
-    <col min="19" max="24" width="9.140625" style="8"/>
-    <col min="25" max="25" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="8"/>
+    <col min="19" max="24" width="9.109375" style="8"/>
+    <col min="25" max="25" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="23" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:18" s="23" customFormat="1" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
       <c r="R1" s="39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1195,11 +1197,11 @@
       <c r="H3" s="7"/>
       <c r="R3" s="38"/>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="28" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1233,13 +1235,13 @@
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1257,11 +1259,11 @@
       <c r="G6" s="14"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1303,7 +1305,7 @@
       <c r="G8" s="33"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1349,7 +1351,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1367,7 +1369,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1387,11 +1389,11 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="28" t="s">
         <v>3</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -1431,7 +1433,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>10</v>
       </c>
@@ -1447,11 +1449,11 @@
       <c r="G15" s="14"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="25" t="s">
         <v>3</v>
       </c>
@@ -1471,7 +1473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -1493,7 +1495,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>12</v>
       </c>
@@ -1517,7 +1519,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>13</v>
       </c>
@@ -1536,7 +1538,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>14</v>
       </c>
@@ -1554,7 +1556,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>15</v>
       </c>
@@ -1574,11 +1576,11 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="28" t="s">
         <v>3</v>
       </c>
@@ -1598,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>16</v>
       </c>
@@ -1618,7 +1620,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>17</v>
       </c>
@@ -1636,11 +1638,11 @@
       <c r="G24" s="14"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="25" t="s">
         <v>3</v>
       </c>
@@ -1660,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>18</v>
       </c>
@@ -1682,7 +1684,7 @@
       <c r="G26" s="33"/>
       <c r="H26" s="34"/>
     </row>
-    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>19</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>20</v>
       </c>
@@ -1729,7 +1731,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="19"/>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>21</v>
       </c>
@@ -1747,7 +1749,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>22</v>
       </c>
@@ -1767,11 +1769,11 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="28" t="s">
         <v>3</v>
       </c>
@@ -1791,7 +1793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -1805,10 +1807,10 @@
       <c r="E32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="48"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="7"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -1816,7 +1818,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
     </row>
-    <row r="33" spans="1:25" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>24</v>
       </c>
@@ -1833,11 +1835,11 @@
       <c r="H33" s="16"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+    <row r="34" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="43"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="25" t="s">
         <v>3</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -1879,7 +1881,7 @@
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
     </row>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>26</v>
       </c>
@@ -1903,7 +1905,7 @@
       <c r="P36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>27</v>
       </c>
@@ -1925,7 +1927,7 @@
       <c r="I37" s="19"/>
       <c r="R37" s="8"/>
     </row>
-    <row r="38" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>28</v>
       </c>
@@ -1943,7 +1945,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>29</v>
       </c>
@@ -1965,11 +1967,11 @@
       <c r="P39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+    <row r="40" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="41"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="28" t="s">
         <v>3</v>
       </c>
@@ -1990,7 +1992,7 @@
       </c>
       <c r="R40" s="36"/>
     </row>
-    <row r="41" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>30</v>
       </c>
@@ -2016,653 +2018,653 @@
       <c r="M41" s="20"/>
       <c r="R41" s="8"/>
     </row>
-    <row r="42" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y79" s="3"/>
     </row>
-    <row r="80" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y99" s="3"/>
     </row>
-    <row r="100" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y100" s="3"/>
     </row>
-    <row r="101" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y102" s="3"/>
     </row>
-    <row r="103" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y104" s="3"/>
     </row>
-    <row r="105" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y105" s="3"/>
     </row>
-    <row r="106" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y106" s="3"/>
     </row>
-    <row r="107" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y107" s="3"/>
     </row>
-    <row r="108" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y108" s="3"/>
     </row>
-    <row r="109" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y111" s="3"/>
     </row>
-    <row r="112" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y112" s="3"/>
     </row>
-    <row r="113" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y113" s="3"/>
     </row>
-    <row r="114" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y114" s="3"/>
     </row>
-    <row r="115" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y121" s="3"/>
     </row>
-    <row r="122" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y122" s="3"/>
     </row>
-    <row r="123" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y131" s="3"/>
     </row>
-    <row r="132" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y132" s="3"/>
     </row>
-    <row r="133" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y138" s="3"/>
     </row>
-    <row r="139" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y139" s="3"/>
     </row>
-    <row r="140" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y140" s="3"/>
     </row>
-    <row r="141" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y141" s="3"/>
     </row>
-    <row r="142" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y142" s="3"/>
     </row>
-    <row r="143" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y143" s="3"/>
     </row>
-    <row r="144" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y144" s="3"/>
     </row>
-    <row r="145" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y145" s="3"/>
     </row>
-    <row r="146" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y146" s="3"/>
     </row>
-    <row r="147" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y147" s="3"/>
     </row>
-    <row r="148" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y148" s="3"/>
     </row>
-    <row r="149" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y149" s="3"/>
     </row>
-    <row r="150" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y150" s="3"/>
     </row>
-    <row r="151" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y151" s="3"/>
     </row>
-    <row r="152" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y152" s="3"/>
     </row>
-    <row r="153" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y153" s="3"/>
     </row>
-    <row r="154" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y154" s="3"/>
     </row>
-    <row r="155" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y155" s="3"/>
     </row>
-    <row r="156" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y156" s="3"/>
     </row>
-    <row r="157" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y157" s="3"/>
     </row>
-    <row r="158" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y158" s="3"/>
     </row>
-    <row r="159" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y159" s="3"/>
     </row>
-    <row r="160" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y160" s="3"/>
     </row>
-    <row r="161" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y161" s="3"/>
     </row>
-    <row r="162" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y162" s="3"/>
     </row>
-    <row r="163" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y163" s="3"/>
     </row>
-    <row r="164" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y164" s="3"/>
     </row>
-    <row r="165" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y165" s="3"/>
     </row>
-    <row r="166" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y166" s="3"/>
     </row>
-    <row r="167" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y167" s="3"/>
     </row>
-    <row r="168" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y168" s="3"/>
     </row>
-    <row r="169" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y169" s="3"/>
     </row>
-    <row r="170" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y170" s="3"/>
     </row>
-    <row r="171" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y171" s="3"/>
     </row>
-    <row r="172" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y172" s="3"/>
     </row>
-    <row r="173" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y173" s="3"/>
     </row>
-    <row r="174" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y174" s="3"/>
     </row>
-    <row r="175" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y175" s="3"/>
     </row>
-    <row r="176" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y176" s="3"/>
     </row>
-    <row r="177" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y177" s="3"/>
     </row>
-    <row r="178" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y178" s="3"/>
     </row>
-    <row r="179" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y179" s="3"/>
     </row>
-    <row r="180" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y180" s="3"/>
     </row>
-    <row r="181" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y181" s="3"/>
     </row>
-    <row r="182" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y182" s="3"/>
     </row>
-    <row r="183" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y183" s="3"/>
     </row>
-    <row r="184" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y184" s="3"/>
     </row>
-    <row r="185" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y185" s="3"/>
     </row>
-    <row r="186" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y186" s="3"/>
     </row>
-    <row r="187" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y187" s="3"/>
     </row>
-    <row r="188" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y188" s="3"/>
     </row>
-    <row r="189" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y189" s="3"/>
     </row>
-    <row r="190" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y190" s="3"/>
     </row>
-    <row r="191" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y191" s="3"/>
     </row>
-    <row r="192" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y192" s="3"/>
     </row>
-    <row r="193" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y193" s="3"/>
     </row>
-    <row r="194" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y194" s="3"/>
     </row>
-    <row r="195" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y195" s="3"/>
     </row>
-    <row r="196" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y196" s="3"/>
     </row>
-    <row r="197" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y197" s="3"/>
     </row>
-    <row r="198" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y198" s="3"/>
     </row>
-    <row r="199" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y199" s="3"/>
     </row>
-    <row r="200" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y200" s="3"/>
     </row>
-    <row r="201" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y201" s="3"/>
     </row>
-    <row r="202" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y202" s="3"/>
     </row>
-    <row r="203" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y203" s="3"/>
     </row>
-    <row r="204" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y204" s="3"/>
     </row>
-    <row r="205" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y205" s="3"/>
     </row>
-    <row r="206" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y206" s="3"/>
     </row>
-    <row r="207" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y207" s="3"/>
     </row>
-    <row r="208" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y208" s="3"/>
     </row>
-    <row r="209" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y209" s="3"/>
     </row>
-    <row r="210" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y210" s="3"/>
     </row>
-    <row r="211" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y211" s="3"/>
     </row>
-    <row r="212" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y212" s="3"/>
     </row>
-    <row r="213" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y213" s="3"/>
     </row>
-    <row r="214" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y214" s="3"/>
     </row>
-    <row r="215" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y215" s="3"/>
     </row>
-    <row r="216" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y216" s="3"/>
     </row>
-    <row r="217" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y217" s="3"/>
     </row>
-    <row r="218" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y218" s="3"/>
     </row>
-    <row r="219" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y219" s="3"/>
     </row>
-    <row r="220" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y220" s="3"/>
     </row>
-    <row r="221" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y221" s="3"/>
     </row>
-    <row r="222" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y222" s="3"/>
     </row>
-    <row r="223" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y223" s="3"/>
     </row>
-    <row r="224" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y224" s="3"/>
     </row>
-    <row r="225" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y225" s="3"/>
     </row>
-    <row r="226" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y226" s="3"/>
     </row>
-    <row r="227" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y227" s="3"/>
     </row>
-    <row r="228" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="228" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y228" s="3"/>
     </row>
-    <row r="229" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="229" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y229" s="3"/>
     </row>
-    <row r="230" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y230" s="3"/>
     </row>
-    <row r="231" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="231" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y231" s="3"/>
     </row>
-    <row r="232" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y232" s="3"/>
     </row>
-    <row r="233" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="233" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y233" s="3"/>
     </row>
-    <row r="234" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y234" s="3"/>
     </row>
-    <row r="235" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y235" s="3"/>
     </row>
-    <row r="236" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="236" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y236" s="3"/>
     </row>
-    <row r="237" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y237" s="3"/>
     </row>
-    <row r="238" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y238" s="3"/>
     </row>
-    <row r="239" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y239" s="3"/>
     </row>
-    <row r="240" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y240" s="3"/>
     </row>
-    <row r="241" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="241" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y241" s="3"/>
     </row>
-    <row r="242" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="242" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y242" s="3"/>
     </row>
-    <row r="243" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="243" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y243" s="3"/>
     </row>
-    <row r="244" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="244" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y244" s="3"/>
     </row>
-    <row r="245" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="245" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y245" s="3"/>
     </row>
-    <row r="246" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="246" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y246" s="3"/>
     </row>
-    <row r="247" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="247" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y247" s="3"/>
     </row>
-    <row r="248" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="248" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y248" s="3"/>
     </row>
-    <row r="249" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="249" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y249" s="3"/>
     </row>
-    <row r="250" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="250" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y250" s="3"/>
     </row>
-    <row r="251" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="251" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y251" s="3"/>
     </row>
-    <row r="252" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="252" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y252" s="3"/>
     </row>
-    <row r="253" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="253" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y253" s="3"/>
     </row>
-    <row r="254" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="254" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y254" s="3"/>
     </row>
-    <row r="255" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="255" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y255" s="3"/>
     </row>
-    <row r="256" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="256" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y256" s="3"/>
     </row>
-    <row r="257" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="257" spans="25:25" x14ac:dyDescent="0.3">
       <c r="Y257" s="3"/>
     </row>
   </sheetData>
@@ -2692,7 +2694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2704,7 +2706,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
